--- a/Study 3/Shocks/GCAM/NDC_LTT - 2065.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2065.xlsx
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.08457789631795462</v>
+        <v>0.08457789631795463</v>
       </c>
     </row>
     <row r="13">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.06936760001811373</v>
+        <v>0.06936760001811375</v>
       </c>
     </row>
     <row r="21">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2013794019547236</v>
+        <v>0.2013794019547237</v>
       </c>
     </row>
     <row r="37">
